--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>Unidad de medida: Tasas / porcentaje</t>
   </si>
   <si>
-    <t>Última actualización: enero de 2022</t>
-  </si>
-  <si>
     <t>Periodicidad: mensual</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Índice general</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AO24"/>
+  <dimension ref="A8:AP24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -545,37 +545,37 @@
     <col min="41" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -699,8 +699,11 @@
       <c r="AO15" s="4">
         <v>44531</v>
       </c>
+      <c r="AP15" s="4">
+        <v>44562</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
@@ -824,8 +827,11 @@
       <c r="AO16" s="7">
         <v>1.1376817351235413E-2</v>
       </c>
+      <c r="AP16" s="7">
+        <v>1.0840363859169422E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -949,10 +955,13 @@
       <c r="AO17" s="7">
         <v>6.5710010636188532E-3</v>
       </c>
+      <c r="AP17" s="7">
+        <v>-6.3042329700638833E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>5.7051824563150166E-3</v>
@@ -1074,8 +1083,11 @@
       <c r="AO18" s="7">
         <v>4.3945896957986452E-3</v>
       </c>
+      <c r="AP18" s="7">
+        <v>4.8861043957915129E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1199,8 +1211,11 @@
       <c r="AO19" s="7">
         <v>1.7619043249246236E-3</v>
       </c>
+      <c r="AP19" s="7">
+        <v>-2.5282828745477604E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1324,8 +1339,11 @@
       <c r="AO20" s="7">
         <v>3.409410635375254E-3</v>
       </c>
+      <c r="AP20" s="7">
+        <v>9.8223563758721433E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -1449,8 +1467,11 @@
       <c r="AO21" s="7">
         <v>5.4027870929278521E-3</v>
       </c>
+      <c r="AP21" s="7">
+        <v>-3.1362339250639359E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -1574,8 +1595,11 @@
       <c r="AO22" s="7">
         <v>6.0428691434299964E-3</v>
       </c>
+      <c r="AP22" s="7">
+        <v>6.9762430641600037E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1699,8 +1723,11 @@
       <c r="AO23" s="7">
         <v>1.2557435254803684E-2</v>
       </c>
+      <c r="AP23" s="7">
+        <v>8.8780026642603094E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1823,6 +1850,9 @@
       </c>
       <c r="AO24" s="8">
         <v>-1.1975994744411356E-2</v>
+      </c>
+      <c r="AP24" s="8">
+        <v>4.5016308303307273E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Índice general</t>
   </si>
   <si>
-    <t>Última actualización:  03/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09/2018</t>
   </si>
   <si>
@@ -201,6 +198,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 02/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  04/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03/2022</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -706,132 +709,134 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AD15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AF15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AG15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AH15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AI15" s="4" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AK15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AL15" s="4" t="s">
+      <c r="AM15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AM15" s="4" t="s">
+      <c r="AN15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AO15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AP15" s="4" t="s">
+      <c r="AQ15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AQ15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
@@ -1010,7 +1015,9 @@
       <c r="AQ16" s="7">
         <v>1.0410842863193492E-2</v>
       </c>
-      <c r="AR16" s="7"/>
+      <c r="AR16" s="7">
+        <v>1.0915584470024164E-2</v>
+      </c>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
@@ -1189,7 +1196,9 @@
       <c r="AQ17" s="7">
         <v>1.2736824109043976E-2</v>
       </c>
-      <c r="AR17" s="7"/>
+      <c r="AR17" s="7">
+        <v>5.8547739811696253E-3</v>
+      </c>
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
@@ -1368,7 +1377,9 @@
       <c r="AQ18" s="7">
         <v>6.083388332520423E-3</v>
       </c>
-      <c r="AR18" s="7"/>
+      <c r="AR18" s="7">
+        <v>3.8247625566869115E-2</v>
+      </c>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -1547,7 +1558,9 @@
       <c r="AQ19" s="7">
         <v>1.0573018229958597E-2</v>
       </c>
-      <c r="AR19" s="7"/>
+      <c r="AR19" s="7">
+        <v>1.4507506018977434E-2</v>
+      </c>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
@@ -1726,7 +1739,9 @@
       <c r="AQ20" s="7">
         <v>3.2142824344072451E-4</v>
       </c>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="7">
+        <v>2.4448239139216232E-2</v>
+      </c>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -1905,7 +1920,9 @@
       <c r="AQ21" s="7">
         <v>1.1172038696446895E-2</v>
       </c>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="7">
+        <v>7.7595936794572218E-4</v>
+      </c>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -2084,7 +2101,9 @@
       <c r="AQ22" s="7">
         <v>8.1183766654171485E-3</v>
       </c>
-      <c r="AR22" s="7"/>
+      <c r="AR22" s="7">
+        <v>1.7491824473343964E-2</v>
+      </c>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -2263,7 +2282,9 @@
       <c r="AQ23" s="7">
         <v>8.07447259095051E-3</v>
       </c>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="7">
+        <v>4.8541519537290689E-3</v>
+      </c>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -2442,7 +2463,9 @@
       <c r="AQ24" s="8">
         <v>1.3279431581526335E-2</v>
       </c>
-      <c r="AR24" s="8"/>
+      <c r="AR24" s="8">
+        <v>6.1819442093640209E-3</v>
+      </c>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
       <c r="AU24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -200,10 +200,13 @@
     <t xml:space="preserve"> 02/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/07/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 03/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/2022</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -835,9 +838,11 @@
         <v>56</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -1018,7 +1023,9 @@
       <c r="AR16" s="7">
         <v>1.0915584470024164E-2</v>
       </c>
-      <c r="AS16" s="7"/>
+      <c r="AS16" s="7">
+        <v>9.4708121511679622E-3</v>
+      </c>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
@@ -1199,7 +1206,9 @@
       <c r="AR17" s="7">
         <v>5.8547739811696253E-3</v>
       </c>
-      <c r="AS17" s="7"/>
+      <c r="AS17" s="7">
+        <v>1.1893137224985528E-2</v>
+      </c>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
@@ -1380,7 +1389,9 @@
       <c r="AR18" s="7">
         <v>3.8247625566869115E-2</v>
       </c>
-      <c r="AS18" s="7"/>
+      <c r="AS18" s="7">
+        <v>1.2462685200446799E-2</v>
+      </c>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
@@ -1561,7 +1572,9 @@
       <c r="AR19" s="7">
         <v>1.4507506018977434E-2</v>
       </c>
-      <c r="AS19" s="7"/>
+      <c r="AS19" s="7">
+        <v>1.0469833791388883E-3</v>
+      </c>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
@@ -1742,7 +1755,9 @@
       <c r="AR20" s="7">
         <v>2.4448239139216232E-2</v>
       </c>
-      <c r="AS20" s="7"/>
+      <c r="AS20" s="7">
+        <v>8.1461102099706917E-3</v>
+      </c>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
@@ -1923,7 +1938,9 @@
       <c r="AR21" s="7">
         <v>7.7595936794572218E-4</v>
       </c>
-      <c r="AS21" s="7"/>
+      <c r="AS21" s="7">
+        <v>1.0758088390780296E-2</v>
+      </c>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
@@ -2104,7 +2121,9 @@
       <c r="AR22" s="7">
         <v>1.7491824473343964E-2</v>
       </c>
-      <c r="AS22" s="7"/>
+      <c r="AS22" s="7">
+        <v>6.71865527235882E-3</v>
+      </c>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
@@ -2285,7 +2304,9 @@
       <c r="AR23" s="7">
         <v>4.8541519537290689E-3</v>
       </c>
-      <c r="AS23" s="7"/>
+      <c r="AS23" s="7">
+        <v>1.7703681298151253E-2</v>
+      </c>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
@@ -2466,7 +2487,9 @@
       <c r="AR24" s="8">
         <v>6.1819442093640209E-3</v>
       </c>
-      <c r="AS24" s="8"/>
+      <c r="AS24" s="8">
+        <v>1.456287348403551E-2</v>
+      </c>
       <c r="AT24" s="8"/>
       <c r="AU24" s="8"/>
       <c r="AV24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -203,10 +203,10 @@
     <t xml:space="preserve"> 03/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 04/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/24/2022</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:CM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -694,7 +696,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -841,7 +843,7 @@
         <v>57</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -206,7 +206,10 @@
     <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/24/2022</t>
+    <t>Última actualización:  06/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/2022</t>
   </si>
 </sst>
 </file>
@@ -668,9 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:CM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -845,7 +846,9 @@
       <c r="AS15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AT15" s="4"/>
+      <c r="AT15" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
@@ -1028,7 +1031,9 @@
       <c r="AS16" s="7">
         <v>9.4708121511679622E-3</v>
       </c>
-      <c r="AT16" s="7"/>
+      <c r="AT16" s="7">
+        <v>3.5736877993477467E-3</v>
+      </c>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
@@ -1211,7 +1216,9 @@
       <c r="AS17" s="7">
         <v>1.1893137224985528E-2</v>
       </c>
-      <c r="AT17" s="7"/>
+      <c r="AT17" s="7">
+        <v>5.548728542026371E-3</v>
+      </c>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
@@ -1394,7 +1401,9 @@
       <c r="AS18" s="7">
         <v>1.2462685200446799E-2</v>
       </c>
-      <c r="AT18" s="7"/>
+      <c r="AT18" s="7">
+        <v>7.1449890111878744E-3</v>
+      </c>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
       <c r="AW18" s="7"/>
@@ -1577,7 +1586,9 @@
       <c r="AS19" s="7">
         <v>1.0469833791388883E-3</v>
       </c>
-      <c r="AT19" s="7"/>
+      <c r="AT19" s="7">
+        <v>8.2799494487306724E-4</v>
+      </c>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
@@ -1760,7 +1771,9 @@
       <c r="AS20" s="7">
         <v>8.1461102099706917E-3</v>
       </c>
-      <c r="AT20" s="7"/>
+      <c r="AT20" s="7">
+        <v>-3.5734603897027428E-3</v>
+      </c>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
@@ -1943,7 +1956,9 @@
       <c r="AS21" s="7">
         <v>1.0758088390780296E-2</v>
       </c>
-      <c r="AT21" s="7"/>
+      <c r="AT21" s="7">
+        <v>9.6585510430016175E-3</v>
+      </c>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
@@ -2126,7 +2141,9 @@
       <c r="AS22" s="7">
         <v>6.71865527235882E-3</v>
       </c>
-      <c r="AT22" s="7"/>
+      <c r="AT22" s="7">
+        <v>6.1953473024254357E-3</v>
+      </c>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
@@ -2309,7 +2326,9 @@
       <c r="AS23" s="7">
         <v>1.7703681298151253E-2</v>
       </c>
-      <c r="AT23" s="7"/>
+      <c r="AT23" s="7">
+        <v>-1.3671806706528233E-2</v>
+      </c>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
@@ -2492,7 +2511,9 @@
       <c r="AS24" s="8">
         <v>1.456287348403551E-2</v>
       </c>
-      <c r="AT24" s="8"/>
+      <c r="AT24" s="8">
+        <v>1.4038024254674042E-2</v>
+      </c>
       <c r="AU24" s="8"/>
       <c r="AV24" s="8"/>
       <c r="AW24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -206,10 +206,13 @@
     <t xml:space="preserve"> 04/2022</t>
   </si>
   <si>
-    <t>Última actualización:  06/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 05/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  07/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/2022</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -847,9 +850,11 @@
         <v>58</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU15" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="AU15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
@@ -1034,7 +1039,9 @@
       <c r="AT16" s="7">
         <v>3.5736877993477467E-3</v>
       </c>
-      <c r="AU16" s="7"/>
+      <c r="AU16" s="7">
+        <v>1.0199905041012425E-2</v>
+      </c>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
@@ -1219,7 +1226,9 @@
       <c r="AT17" s="7">
         <v>5.548728542026371E-3</v>
       </c>
-      <c r="AU17" s="7"/>
+      <c r="AU17" s="7">
+        <v>1.4762443862977204E-2</v>
+      </c>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
       <c r="AX17" s="7"/>
@@ -1404,7 +1413,9 @@
       <c r="AT18" s="7">
         <v>7.1449890111878744E-3</v>
       </c>
-      <c r="AU18" s="7"/>
+      <c r="AU18" s="7">
+        <v>-2.963441903068853E-4</v>
+      </c>
       <c r="AV18" s="7"/>
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
@@ -1589,7 +1600,9 @@
       <c r="AT19" s="7">
         <v>8.2799494487306724E-4</v>
       </c>
-      <c r="AU19" s="7"/>
+      <c r="AU19" s="7">
+        <v>1.7329966036749855E-3</v>
+      </c>
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
       <c r="AX19" s="7"/>
@@ -1774,7 +1787,9 @@
       <c r="AT20" s="7">
         <v>-3.5734603897027428E-3</v>
       </c>
-      <c r="AU20" s="7"/>
+      <c r="AU20" s="7">
+        <v>1.1463593055828225E-2</v>
+      </c>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
@@ -1959,7 +1974,9 @@
       <c r="AT21" s="7">
         <v>9.6585510430016175E-3</v>
       </c>
-      <c r="AU21" s="7"/>
+      <c r="AU21" s="7">
+        <v>1.2277142240448846E-2</v>
+      </c>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
@@ -2144,7 +2161,9 @@
       <c r="AT22" s="7">
         <v>6.1953473024254357E-3</v>
       </c>
-      <c r="AU22" s="7"/>
+      <c r="AU22" s="7">
+        <v>1.0871436652974742E-2</v>
+      </c>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
@@ -2329,7 +2348,9 @@
       <c r="AT23" s="7">
         <v>-1.3671806706528233E-2</v>
       </c>
-      <c r="AU23" s="7"/>
+      <c r="AU23" s="7">
+        <v>7.5687748156552104E-3</v>
+      </c>
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
@@ -2514,7 +2535,9 @@
       <c r="AT24" s="8">
         <v>1.4038024254674042E-2</v>
       </c>
-      <c r="AU24" s="8"/>
+      <c r="AU24" s="8">
+        <v>1.8149399691670398E-2</v>
+      </c>
       <c r="AV24" s="8"/>
       <c r="AW24" s="8"/>
       <c r="AX24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -209,10 +209,13 @@
     <t xml:space="preserve"> 05/2022</t>
   </si>
   <si>
-    <t>Última actualización:  07/07/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 06/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  08/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07/2022</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -853,9 +856,11 @@
         <v>59</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV15" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -1042,7 +1047,9 @@
       <c r="AU16" s="7">
         <v>1.0199905041012425E-2</v>
       </c>
-      <c r="AV16" s="7"/>
+      <c r="AV16" s="7">
+        <v>6.3207027324885257E-3</v>
+      </c>
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
@@ -1229,7 +1236,9 @@
       <c r="AU17" s="7">
         <v>1.4762443862977204E-2</v>
       </c>
-      <c r="AV17" s="7"/>
+      <c r="AV17" s="7">
+        <v>1.6128793923811058E-2</v>
+      </c>
       <c r="AW17" s="7"/>
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
@@ -1416,7 +1425,9 @@
       <c r="AU18" s="7">
         <v>-2.963441903068853E-4</v>
       </c>
-      <c r="AV18" s="7"/>
+      <c r="AV18" s="7">
+        <v>-3.5634723869066853E-2</v>
+      </c>
       <c r="AW18" s="7"/>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
@@ -1603,7 +1614,9 @@
       <c r="AU19" s="7">
         <v>1.7329966036749855E-3</v>
       </c>
-      <c r="AV19" s="7"/>
+      <c r="AV19" s="7">
+        <v>3.9555242590998407E-3</v>
+      </c>
       <c r="AW19" s="7"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
@@ -1790,7 +1803,9 @@
       <c r="AU20" s="7">
         <v>1.1463593055828225E-2</v>
       </c>
-      <c r="AV20" s="7"/>
+      <c r="AV20" s="7">
+        <v>3.2633909277723916E-4</v>
+      </c>
       <c r="AW20" s="7"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
@@ -1977,7 +1992,9 @@
       <c r="AU21" s="7">
         <v>1.2277142240448846E-2</v>
       </c>
-      <c r="AV21" s="7"/>
+      <c r="AV21" s="7">
+        <v>7.130246402893059E-3</v>
+      </c>
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
@@ -2164,7 +2181,9 @@
       <c r="AU22" s="7">
         <v>1.0871436652974742E-2</v>
       </c>
-      <c r="AV22" s="7"/>
+      <c r="AV22" s="7">
+        <v>3.4794033918099654E-3</v>
+      </c>
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
@@ -2351,7 +2370,9 @@
       <c r="AU23" s="7">
         <v>7.5687748156552104E-3</v>
       </c>
-      <c r="AV23" s="7"/>
+      <c r="AV23" s="7">
+        <v>1.3722006227678829E-3</v>
+      </c>
       <c r="AW23" s="7"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
@@ -2538,7 +2559,9 @@
       <c r="AU24" s="8">
         <v>1.8149399691670398E-2</v>
       </c>
-      <c r="AV24" s="8"/>
+      <c r="AV24" s="8">
+        <v>6.4007953198488288E-3</v>
+      </c>
       <c r="AW24" s="8"/>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -212,10 +212,13 @@
     <t xml:space="preserve"> 06/2022</t>
   </si>
   <si>
-    <t>Última actualización:  08/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 07/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  09/08/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/2022</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -859,9 +862,11 @@
         <v>60</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW15" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="AW15" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
@@ -1050,7 +1055,9 @@
       <c r="AV16" s="7">
         <v>6.3207027324885257E-3</v>
       </c>
-      <c r="AW16" s="7"/>
+      <c r="AW16" s="7">
+        <v>4.1712297880565075E-3</v>
+      </c>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
@@ -1239,7 +1246,9 @@
       <c r="AV17" s="7">
         <v>1.6128793923811058E-2</v>
       </c>
-      <c r="AW17" s="7"/>
+      <c r="AW17" s="7">
+        <v>8.2963113770713193E-3</v>
+      </c>
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="AZ17" s="7"/>
@@ -1428,7 +1437,9 @@
       <c r="AV18" s="7">
         <v>-3.5634723869066853E-2</v>
       </c>
-      <c r="AW18" s="7"/>
+      <c r="AW18" s="7">
+        <v>1.960747785426209E-2</v>
+      </c>
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="7"/>
@@ -1617,7 +1628,9 @@
       <c r="AV19" s="7">
         <v>3.9555242590998407E-3</v>
       </c>
-      <c r="AW19" s="7"/>
+      <c r="AW19" s="7">
+        <v>-3.2472030757507708E-3</v>
+      </c>
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="AZ19" s="7"/>
@@ -1806,7 +1819,9 @@
       <c r="AV20" s="7">
         <v>3.2633909277723916E-4</v>
       </c>
-      <c r="AW20" s="7"/>
+      <c r="AW20" s="7">
+        <v>-8.0235592861677141E-4</v>
+      </c>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="7"/>
@@ -1995,7 +2010,9 @@
       <c r="AV21" s="7">
         <v>7.130246402893059E-3</v>
       </c>
-      <c r="AW21" s="7"/>
+      <c r="AW21" s="7">
+        <v>8.4347450522090917E-3</v>
+      </c>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
@@ -2184,7 +2201,9 @@
       <c r="AV22" s="7">
         <v>3.4794033918099654E-3</v>
       </c>
-      <c r="AW22" s="7"/>
+      <c r="AW22" s="7">
+        <v>1.2123563357742118E-3</v>
+      </c>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="7"/>
@@ -2373,7 +2392,9 @@
       <c r="AV23" s="7">
         <v>1.3722006227678829E-3</v>
       </c>
-      <c r="AW23" s="7"/>
+      <c r="AW23" s="7">
+        <v>4.3920521424434256E-4</v>
+      </c>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
@@ -2562,7 +2583,9 @@
       <c r="AV24" s="8">
         <v>6.4007953198488288E-3</v>
       </c>
-      <c r="AW24" s="8"/>
+      <c r="AW24" s="8">
+        <v>5.0455160255922227E-3</v>
+      </c>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
       <c r="AZ24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -215,10 +215,16 @@
     <t xml:space="preserve"> 07/2022</t>
   </si>
   <si>
-    <t>Última actualización:  09/08/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 08/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  11/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/2022</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -865,10 +871,14 @@
         <v>61</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY15" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
@@ -1058,8 +1068,12 @@
       <c r="AW16" s="7">
         <v>4.1712297880565075E-3</v>
       </c>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
+      <c r="AX16" s="7">
+        <v>5.2525220124777228E-3</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>5.5122569940251331E-3</v>
+      </c>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
@@ -1249,8 +1263,12 @@
       <c r="AW17" s="7">
         <v>8.2963113770713193E-3</v>
       </c>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
+      <c r="AX17" s="7">
+        <v>1.3369678089304449E-2</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>9.5498341943838216E-3</v>
+      </c>
       <c r="AZ17" s="7"/>
       <c r="BA17" s="7"/>
       <c r="BB17" s="7"/>
@@ -1440,8 +1458,12 @@
       <c r="AW18" s="7">
         <v>1.960747785426209E-2</v>
       </c>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
+      <c r="AX18" s="7">
+        <v>3.0183990791324833E-2</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>1.7629427309650003E-2</v>
+      </c>
       <c r="AZ18" s="7"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
@@ -1631,8 +1653,12 @@
       <c r="AW19" s="7">
         <v>-3.2472030757507708E-3</v>
       </c>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
+      <c r="AX19" s="7">
+        <v>-2.4846015515728181E-3</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>-9.0574188098202502E-3</v>
+      </c>
       <c r="AZ19" s="7"/>
       <c r="BA19" s="7"/>
       <c r="BB19" s="7"/>
@@ -1822,8 +1848,12 @@
       <c r="AW20" s="7">
         <v>-8.0235592861677141E-4</v>
       </c>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
+      <c r="AX20" s="7">
+        <v>4.2885506287226871E-3</v>
+      </c>
+      <c r="AY20" s="7">
+        <v>1.0209909411216689E-2</v>
+      </c>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
@@ -2013,8 +2043,12 @@
       <c r="AW21" s="7">
         <v>8.4347450522090917E-3</v>
       </c>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
+      <c r="AX21" s="7">
+        <v>-4.5096112664700927E-3</v>
+      </c>
+      <c r="AY21" s="7">
+        <v>5.9388233706196836E-3</v>
+      </c>
       <c r="AZ21" s="7"/>
       <c r="BA21" s="7"/>
       <c r="BB21" s="7"/>
@@ -2204,8 +2238,12 @@
       <c r="AW22" s="7">
         <v>1.2123563357742118E-3</v>
       </c>
-      <c r="AX22" s="7"/>
-      <c r="AY22" s="7"/>
+      <c r="AX22" s="7">
+        <v>-3.2855436081243861E-3</v>
+      </c>
+      <c r="AY22" s="7">
+        <v>2.5107516866582635E-3</v>
+      </c>
       <c r="AZ22" s="7"/>
       <c r="BA22" s="7"/>
       <c r="BB22" s="7"/>
@@ -2395,8 +2433,12 @@
       <c r="AW23" s="7">
         <v>4.3920521424434256E-4</v>
       </c>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
+      <c r="AX23" s="7">
+        <v>2.6340743862607319E-3</v>
+      </c>
+      <c r="AY23" s="7">
+        <v>8.9410816869832654E-3</v>
+      </c>
       <c r="AZ23" s="7"/>
       <c r="BA23" s="7"/>
       <c r="BB23" s="7"/>
@@ -2586,8 +2628,12 @@
       <c r="AW24" s="8">
         <v>5.0455160255922227E-3</v>
       </c>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
+      <c r="AX24" s="8">
+        <v>1.7842831869112619E-3</v>
+      </c>
+      <c r="AY24" s="8">
+        <v>1.6256358394590276E-2</v>
+      </c>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -218,13 +218,19 @@
     <t xml:space="preserve"> 08/2022</t>
   </si>
   <si>
-    <t>Última actualización:  11/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> 10/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  01/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/2022</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -874,13 +880,17 @@
         <v>62</v>
       </c>
       <c r="AX15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AY15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
+      <c r="AZ15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
@@ -1074,8 +1084,12 @@
       <c r="AY16" s="7">
         <v>5.5122569940251331E-3</v>
       </c>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
+      <c r="AZ16" s="7">
+        <v>2.6973851231277823E-3</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>4.7235497040858387E-3</v>
+      </c>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
@@ -1269,8 +1283,12 @@
       <c r="AY17" s="7">
         <v>9.5498341943838216E-3</v>
       </c>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
+      <c r="AZ17" s="7">
+        <v>3.5103053542731022E-3</v>
+      </c>
+      <c r="BA17" s="7">
+        <v>9.9110742733516943E-3</v>
+      </c>
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="7"/>
@@ -1464,8 +1482,12 @@
       <c r="AY18" s="7">
         <v>1.7629427309650003E-2</v>
       </c>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
+      <c r="AZ18" s="7">
+        <v>3.3462885825330524E-3</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>1.9368062672617814E-3</v>
+      </c>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
@@ -1659,8 +1681,12 @@
       <c r="AY19" s="7">
         <v>-9.0574188098202502E-3</v>
       </c>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
+      <c r="AZ19" s="7">
+        <v>-2.8475255530263643E-3</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>-4.9357036462510662E-3</v>
+      </c>
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
@@ -1854,8 +1880,12 @@
       <c r="AY20" s="7">
         <v>1.0209909411216689E-2</v>
       </c>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
+      <c r="AZ20" s="7">
+        <v>6.5406660694249386E-3</v>
+      </c>
+      <c r="BA20" s="7">
+        <v>1.0948368978181078E-2</v>
+      </c>
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
@@ -2049,8 +2079,12 @@
       <c r="AY21" s="7">
         <v>5.9388233706196836E-3</v>
       </c>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
+      <c r="AZ21" s="7">
+        <v>4.5452258356675213E-3</v>
+      </c>
+      <c r="BA21" s="7">
+        <v>1.1820883560957673E-2</v>
+      </c>
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="7"/>
@@ -2244,8 +2278,12 @@
       <c r="AY22" s="7">
         <v>2.5107516866582635E-3</v>
       </c>
-      <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
+      <c r="AZ22" s="7">
+        <v>1.2764685447450574E-3</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>2.0817028006163696E-3</v>
+      </c>
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="7"/>
@@ -2439,8 +2477,12 @@
       <c r="AY23" s="7">
         <v>8.9410816869832654E-3</v>
       </c>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
+      <c r="AZ23" s="7">
+        <v>5.1296294688967237E-3</v>
+      </c>
+      <c r="BA23" s="7">
+        <v>1.9861144692745469E-4</v>
+      </c>
       <c r="BB23" s="7"/>
       <c r="BC23" s="7"/>
       <c r="BD23" s="7"/>
@@ -2634,8 +2676,12 @@
       <c r="AY24" s="8">
         <v>1.6256358394590276E-2</v>
       </c>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
+      <c r="AZ24" s="8">
+        <v>8.5774120722432734E-3</v>
+      </c>
+      <c r="BA24" s="8">
+        <v>7.4368055606688355E-3</v>
+      </c>
       <c r="BB24" s="8"/>
       <c r="BC24" s="8"/>
       <c r="BD24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -224,13 +224,16 @@
     <t xml:space="preserve"> 10/2022</t>
   </si>
   <si>
-    <t>Última actualización:  01/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11/2022</t>
   </si>
   <si>
     <t xml:space="preserve"> 12/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/2023</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -886,12 +889,14 @@
         <v>64</v>
       </c>
       <c r="AZ15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BA15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB15" s="4"/>
+      <c r="BB15" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
@@ -1090,7 +1095,9 @@
       <c r="BA16" s="7">
         <v>4.7235497040858387E-3</v>
       </c>
-      <c r="BB16" s="7"/>
+      <c r="BB16" s="7">
+        <v>7.5993227546560238E-3</v>
+      </c>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7"/>
@@ -1289,7 +1296,9 @@
       <c r="BA17" s="7">
         <v>9.9110742733516943E-3</v>
       </c>
-      <c r="BB17" s="7"/>
+      <c r="BB17" s="7">
+        <v>9.674704577227411E-3</v>
+      </c>
       <c r="BC17" s="7"/>
       <c r="BD17" s="7"/>
       <c r="BE17" s="7"/>
@@ -1488,7 +1497,9 @@
       <c r="BA18" s="7">
         <v>1.9368062672617814E-3</v>
       </c>
-      <c r="BB18" s="7"/>
+      <c r="BB18" s="7">
+        <v>5.5478021168320346E-4</v>
+      </c>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
@@ -1687,7 +1698,9 @@
       <c r="BA19" s="7">
         <v>-4.9357036462510662E-3</v>
       </c>
-      <c r="BB19" s="7"/>
+      <c r="BB19" s="7">
+        <v>6.6431057848164166E-3</v>
+      </c>
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="7"/>
@@ -1886,7 +1899,9 @@
       <c r="BA20" s="7">
         <v>1.0948368978181078E-2</v>
       </c>
-      <c r="BB20" s="7"/>
+      <c r="BB20" s="7">
+        <v>9.8297319474838218E-4</v>
+      </c>
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
@@ -2085,7 +2100,9 @@
       <c r="BA21" s="7">
         <v>1.1820883560957673E-2</v>
       </c>
-      <c r="BB21" s="7"/>
+      <c r="BB21" s="7">
+        <v>1.4677733408138494E-2</v>
+      </c>
       <c r="BC21" s="7"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
@@ -2284,7 +2301,9 @@
       <c r="BA22" s="7">
         <v>2.0817028006163696E-3</v>
       </c>
-      <c r="BB22" s="7"/>
+      <c r="BB22" s="7">
+        <v>4.5654011836226971E-3</v>
+      </c>
       <c r="BC22" s="7"/>
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
@@ -2483,7 +2502,9 @@
       <c r="BA23" s="7">
         <v>1.9861144692745469E-4</v>
       </c>
-      <c r="BB23" s="7"/>
+      <c r="BB23" s="7">
+        <v>-3.6778989354814273E-3</v>
+      </c>
       <c r="BC23" s="7"/>
       <c r="BD23" s="7"/>
       <c r="BE23" s="7"/>
@@ -2682,7 +2703,9 @@
       <c r="BA24" s="8">
         <v>7.4368055606688355E-3</v>
       </c>
-      <c r="BB24" s="8"/>
+      <c r="BB24" s="8">
+        <v>1.8666725137223006E-2</v>
+      </c>
       <c r="BC24" s="8"/>
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -230,10 +230,10 @@
     <t xml:space="preserve"> 12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  02/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/2023</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/23/2023</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>66</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>

--- a/Tabulados INPC/inflacion_mensual_grupo.xlsx
+++ b/Tabulados INPC/inflacion_mensual_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -230,10 +230,13 @@
     <t xml:space="preserve"> 12/2022</t>
   </si>
   <si>
+    <t>Última actualización:  03/09/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 01/2023</t>
   </si>
   <si>
-    <t>Última actualización:  02/23/2023</t>
+    <t xml:space="preserve"> 02/2023</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -895,9 +898,11 @@
         <v>66</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC15" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="BD15" s="4"/>
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
@@ -1098,7 +1103,9 @@
       <c r="BB16" s="7">
         <v>7.5993227546560238E-3</v>
       </c>
-      <c r="BC16" s="7"/>
+      <c r="BC16" s="7">
+        <v>6.6979288784680957E-3</v>
+      </c>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
@@ -1299,7 +1306,9 @@
       <c r="BB17" s="7">
         <v>9.674704577227411E-3</v>
       </c>
-      <c r="BC17" s="7"/>
+      <c r="BC17" s="7">
+        <v>5.2559792791799786E-3</v>
+      </c>
       <c r="BD17" s="7"/>
       <c r="BE17" s="7"/>
       <c r="BF17" s="7"/>
@@ -1500,7 +1509,9 @@
       <c r="BB18" s="7">
         <v>5.5478021168320346E-4</v>
       </c>
-      <c r="BC18" s="7"/>
+      <c r="BC18" s="7">
+        <v>1.0153779510504668E-2</v>
+      </c>
       <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
@@ -1701,7 +1712,9 @@
       <c r="BB19" s="7">
         <v>6.6431057848164166E-3</v>
       </c>
-      <c r="BC19" s="7"/>
+      <c r="BC19" s="7">
+        <v>9.5997325097447739E-3</v>
+      </c>
       <c r="BD19" s="7"/>
       <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
@@ -1902,7 +1915,9 @@
       <c r="BB20" s="7">
         <v>9.8297319474838218E-4</v>
       </c>
-      <c r="BC20" s="7"/>
+      <c r="BC20" s="7">
+        <v>1.251846601825668E-2</v>
+      </c>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
@@ -2103,7 +2118,9 @@
       <c r="BB21" s="7">
         <v>1.4677733408138494E-2</v>
       </c>
-      <c r="BC21" s="7"/>
+      <c r="BC21" s="7">
+        <v>1.2822910483562655E-2</v>
+      </c>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
@@ -2304,7 +2321,9 @@
       <c r="BB22" s="7">
         <v>4.5654011836226971E-3</v>
       </c>
-      <c r="BC22" s="7"/>
+      <c r="BC22" s="7">
+        <v>3.0698449848511888E-3</v>
+      </c>
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
       <c r="BF22" s="7"/>
@@ -2505,7 +2524,9 @@
       <c r="BB23" s="7">
         <v>-3.6778989354814273E-3</v>
       </c>
-      <c r="BC23" s="7"/>
+      <c r="BC23" s="7">
+        <v>7.0276687377059943E-3</v>
+      </c>
       <c r="BD23" s="7"/>
       <c r="BE23" s="7"/>
       <c r="BF23" s="7"/>
@@ -2706,7 +2727,9 @@
       <c r="BB24" s="8">
         <v>1.8666725137223006E-2</v>
       </c>
-      <c r="BC24" s="8"/>
+      <c r="BC24" s="8">
+        <v>1.3201793721973054E-3</v>
+      </c>
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>
       <c r="BF24" s="8"/>
